--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Jun 2022</t>
   </si>
@@ -55,30 +55,30 @@
     <t>UF</t>
   </si>
   <si>
+    <t>OpEx - Payroll</t>
+  </si>
+  <si>
+    <t>OpEx - Marketing</t>
+  </si>
+  <si>
+    <t>OpEx - Repairs &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>OpEx - Office Expenses</t>
+  </si>
+  <si>
+    <t>OpEx - Utilities</t>
+  </si>
+  <si>
+    <t>OpEx - Others</t>
+  </si>
+  <si>
+    <t>OpEx - Property Management Fee</t>
+  </si>
+  <si>
     <t>OpEx - Maintenance</t>
   </si>
   <si>
-    <t>OpEx - Payroll</t>
-  </si>
-  <si>
-    <t>OpEx - Marketing</t>
-  </si>
-  <si>
-    <t>OpEx - Repairs &amp; Maintenance</t>
-  </si>
-  <si>
-    <t>OpEx - Office Expenses</t>
-  </si>
-  <si>
-    <t>OpEx - Utilities</t>
-  </si>
-  <si>
-    <t>OpEx - Others</t>
-  </si>
-  <si>
-    <t>OpEx - Property Management Fee</t>
-  </si>
-  <si>
     <t>OpEx - Total</t>
   </si>
   <si>
@@ -92,6 +92,72 @@
   </si>
   <si>
     <t>SG&amp;A - Total</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Residential Leasing</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Gain/Loss To Lease</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Less: Vacancy Factor</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Less: Concessions</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Less: Model Units</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Less: Credit Losses</t>
+  </si>
+  <si>
+    <t>Effective Residential Revenues</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT - Service Revenues</t>
+  </si>
+  <si>
+    <t>Effective Service Revenues</t>
+  </si>
+  <si>
+    <t>Revenues w/ VAT</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT - Residential Parking Income</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT - Storage Income</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT - Other Income</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT - Less: Vacancy Factor</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT - Less: Credit Losses</t>
+  </si>
+  <si>
+    <t>Revenues w/o VAT</t>
+  </si>
+  <si>
+    <t>Maintenance - Maintenance Reimbursements</t>
+  </si>
+  <si>
+    <t>Maintenance - Less: Vacancy Factor</t>
+  </si>
+  <si>
+    <t>Maintenance - Less: Model Units</t>
+  </si>
+  <si>
+    <t>Maintenance - Less: Credits Losses</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
   </si>
   <si>
     <t>41130-10: REV - Rent - Residential</t>
@@ -788,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,40 +903,40 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>33086.83</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>33397.95</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>33836.51</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>34258.23</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>34600.35</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34811.8</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>35099.67</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>35287.45</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>35509.63</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>35575.43</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>35812.37</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>36032.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -878,40 +944,40 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1533</v>
+        <v>-19778703</v>
       </c>
       <c r="C3">
-        <v>2137</v>
+        <v>-23706509</v>
       </c>
       <c r="D3">
-        <v>1072</v>
+        <v>-23969987</v>
       </c>
       <c r="E3">
-        <v>1192</v>
+        <v>-14443124</v>
       </c>
       <c r="F3">
-        <v>1644</v>
+        <v>-21126040</v>
       </c>
       <c r="G3">
-        <v>2157</v>
+        <v>-15444643</v>
       </c>
       <c r="H3">
-        <v>2774</v>
+        <v>-17923877</v>
       </c>
       <c r="I3">
-        <v>1624</v>
+        <v>-21546547</v>
       </c>
       <c r="J3">
-        <v>1328</v>
+        <v>-18259411</v>
       </c>
       <c r="K3">
-        <v>1730</v>
+        <v>-18616873</v>
       </c>
       <c r="L3">
-        <v>1609</v>
+        <v>-23615784</v>
       </c>
       <c r="M3">
-        <v>938</v>
+        <v>-13020231</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -919,40 +985,40 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>598</v>
+        <v>-2449313</v>
       </c>
       <c r="C4">
-        <v>710</v>
+        <v>-3303871</v>
       </c>
       <c r="D4">
-        <v>708</v>
+        <v>-3074060</v>
       </c>
       <c r="E4">
-        <v>422</v>
+        <v>-2495352</v>
       </c>
       <c r="F4">
-        <v>611</v>
+        <v>-8423135</v>
       </c>
       <c r="G4">
-        <v>444</v>
+        <v>-2578859</v>
       </c>
       <c r="H4">
-        <v>511</v>
+        <v>-2221514</v>
       </c>
       <c r="I4">
-        <v>611</v>
+        <v>-1846619</v>
       </c>
       <c r="J4">
-        <v>514</v>
+        <v>-2234514</v>
       </c>
       <c r="K4">
-        <v>523</v>
+        <v>-6821369</v>
       </c>
       <c r="L4">
-        <v>659</v>
+        <v>-1755750</v>
       </c>
       <c r="M4">
-        <v>361</v>
+        <v>-1540536</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -960,40 +1026,40 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>-1403503</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>-984824</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>-3950541</v>
       </c>
       <c r="E5">
-        <v>73</v>
+        <v>275731</v>
       </c>
       <c r="F5">
-        <v>243</v>
+        <v>-1804967</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>-2603924</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>-3734820</v>
       </c>
       <c r="I5">
-        <v>52</v>
+        <v>-2966444</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>-4727362</v>
       </c>
       <c r="K5">
-        <v>192</v>
+        <v>-5700827</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>-4152179</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>-4457619</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1001,40 +1067,40 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>-16018692</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>-36362968</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>3224916</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>-11644409</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>-16681938</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>-31567102</v>
       </c>
       <c r="H6">
-        <v>106</v>
+        <v>-51303115</v>
       </c>
       <c r="I6">
-        <v>84</v>
+        <v>-18025419</v>
       </c>
       <c r="J6">
-        <v>133</v>
+        <v>-14436872</v>
       </c>
       <c r="K6">
-        <v>160</v>
+        <v>-17161721</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>-19457318</v>
       </c>
       <c r="M6">
-        <v>124</v>
+        <v>-5939970</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1042,40 +1108,40 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>484</v>
+        <v>-7881729</v>
       </c>
       <c r="C7">
-        <v>1089</v>
+        <v>-4175440</v>
       </c>
       <c r="D7">
-        <v>-95</v>
+        <v>-5037823</v>
       </c>
       <c r="E7">
-        <v>340</v>
+        <v>-7763518</v>
       </c>
       <c r="F7">
-        <v>482</v>
+        <v>-3270089</v>
       </c>
       <c r="G7">
-        <v>907</v>
+        <v>-18102485</v>
       </c>
       <c r="H7">
-        <v>1462</v>
+        <v>-12691881</v>
       </c>
       <c r="I7">
-        <v>511</v>
+        <v>-7858168</v>
       </c>
       <c r="J7">
-        <v>407</v>
+        <v>-1286593</v>
       </c>
       <c r="K7">
-        <v>482</v>
+        <v>-7015097</v>
       </c>
       <c r="L7">
-        <v>543</v>
+        <v>-7747421</v>
       </c>
       <c r="M7">
-        <v>165</v>
+        <v>-7809322</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1083,40 +1149,40 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>238</v>
+        <v>-3215670</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>-2812650</v>
       </c>
       <c r="D8">
-        <v>149</v>
+        <v>-3433215</v>
       </c>
       <c r="E8">
-        <v>227</v>
+        <v>-4719009</v>
       </c>
       <c r="F8">
-        <v>95</v>
+        <v>-5560501</v>
       </c>
       <c r="G8">
-        <v>520</v>
+        <v>-4745655</v>
       </c>
       <c r="H8">
-        <v>362</v>
+        <v>-9476099</v>
       </c>
       <c r="I8">
-        <v>223</v>
+        <v>-5028764</v>
       </c>
       <c r="J8">
-        <v>36</v>
+        <v>-2409465</v>
       </c>
       <c r="K8">
-        <v>197</v>
+        <v>-1538161</v>
       </c>
       <c r="L8">
-        <v>216</v>
+        <v>529582</v>
       </c>
       <c r="M8">
-        <v>217</v>
+        <v>-847070</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1124,40 +1190,40 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>-2326999</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>-3855856</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>-4387399</v>
       </c>
       <c r="E9">
-        <v>138</v>
+        <v>-4850426</v>
       </c>
       <c r="F9">
-        <v>161</v>
+        <v>-4467989</v>
       </c>
       <c r="G9">
-        <v>137</v>
+        <v>-5393937</v>
       </c>
       <c r="H9">
-        <v>270</v>
+        <v>-6787511</v>
       </c>
       <c r="I9">
-        <v>143</v>
+        <v>-5236837</v>
       </c>
       <c r="J9">
-        <v>175</v>
+        <v>-4824557</v>
       </c>
       <c r="K9">
-        <v>176</v>
+        <v>-5317999</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>-5509924</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>-5959167</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1165,40 +1231,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>-50747610</v>
       </c>
       <c r="C10">
-        <v>115</v>
+        <v>-71346262</v>
       </c>
       <c r="D10">
-        <v>130</v>
+        <v>-36240710</v>
       </c>
       <c r="E10">
-        <v>142</v>
+        <v>-40789681</v>
       </c>
       <c r="F10">
-        <v>129</v>
+        <v>-56866670</v>
       </c>
       <c r="G10">
-        <v>155</v>
+        <v>-75042668</v>
       </c>
       <c r="H10">
-        <v>193</v>
+        <v>-97351306</v>
       </c>
       <c r="I10">
-        <v>148</v>
+        <v>-57271961</v>
       </c>
       <c r="J10">
-        <v>136</v>
+        <v>-43354217</v>
       </c>
       <c r="K10">
-        <v>149</v>
+        <v>-56854048</v>
       </c>
       <c r="L10">
-        <v>154</v>
+        <v>-56198870</v>
       </c>
       <c r="M10">
-        <v>165</v>
+        <v>-33614748</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1206,40 +1272,40 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1603</v>
+        <v>-53074609</v>
       </c>
       <c r="C11">
-        <v>2252</v>
+        <v>-75202118</v>
       </c>
       <c r="D11">
-        <v>1202</v>
+        <v>-40628109</v>
       </c>
       <c r="E11">
-        <v>1334</v>
+        <v>-45640107</v>
       </c>
       <c r="F11">
-        <v>1773</v>
+        <v>-61334659</v>
       </c>
       <c r="G11">
-        <v>2312</v>
+        <v>-80436605</v>
       </c>
       <c r="H11">
-        <v>2967</v>
+        <v>-104138817</v>
       </c>
       <c r="I11">
-        <v>1772</v>
+        <v>-62508798</v>
       </c>
       <c r="J11">
-        <v>1464</v>
+        <v>-48178774</v>
       </c>
       <c r="K11">
-        <v>1879</v>
+        <v>-62172047</v>
       </c>
       <c r="L11">
-        <v>1763</v>
+        <v>-61708794</v>
       </c>
       <c r="M11">
-        <v>1103</v>
+        <v>-39573915</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1247,40 +1313,40 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>209</v>
+        <v>-6907071</v>
       </c>
       <c r="C12">
-        <v>206</v>
+        <v>-6890680</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12">
-        <v>212</v>
+        <v>-7259745</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12">
-        <v>209</v>
+        <v>-7259745</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>-3103243</v>
       </c>
       <c r="I12">
-        <v>44</v>
+        <v>-1569786</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L12">
-        <v>298</v>
+        <v>-10678625</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>-107274</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1288,40 +1354,40 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>-1822097</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>-1822097</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>-1822097</v>
       </c>
       <c r="E13">
-        <v>53</v>
+        <v>-1822097</v>
       </c>
       <c r="F13">
-        <v>53</v>
+        <v>-1822097</v>
       </c>
       <c r="G13">
-        <v>52</v>
+        <v>-1822097</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>-1822097</v>
       </c>
       <c r="I13">
-        <v>51</v>
+        <v>-1803662</v>
       </c>
       <c r="J13">
-        <v>52</v>
+        <v>-1845504</v>
       </c>
       <c r="K13">
-        <v>51</v>
+        <v>-1824524</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>-1824524</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>-1824524</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1329,40 +1395,40 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>-1695671</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>-1818098</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>-2005362</v>
       </c>
       <c r="E14">
-        <v>66</v>
+        <v>-2247605</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>-2405379</v>
       </c>
       <c r="G14">
-        <v>77</v>
+        <v>-2666738</v>
       </c>
       <c r="H14">
-        <v>94</v>
+        <v>-3289733</v>
       </c>
       <c r="I14">
-        <v>74</v>
+        <v>-2599965</v>
       </c>
       <c r="J14">
-        <v>72</v>
+        <v>-2563820</v>
       </c>
       <c r="K14">
-        <v>65</v>
+        <v>-2315284</v>
       </c>
       <c r="L14">
-        <v>74</v>
+        <v>-2650139</v>
       </c>
       <c r="M14">
-        <v>89</v>
+        <v>-3195754</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1370,40 +1436,40 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>315</v>
+        <v>-10424839</v>
       </c>
       <c r="C15">
-        <v>315</v>
+        <v>-10530875</v>
       </c>
       <c r="D15">
-        <v>113</v>
+        <v>-3827459</v>
       </c>
       <c r="E15">
-        <v>331</v>
+        <v>-11329447</v>
       </c>
       <c r="F15">
-        <v>123</v>
+        <v>-4227476</v>
       </c>
       <c r="G15">
-        <v>338</v>
+        <v>-11748580</v>
       </c>
       <c r="H15">
-        <v>234</v>
+        <v>-8215073</v>
       </c>
       <c r="I15">
-        <v>169</v>
+        <v>-5973413</v>
       </c>
       <c r="J15">
-        <v>124</v>
+        <v>-4409324</v>
       </c>
       <c r="K15">
-        <v>116</v>
+        <v>-4139808</v>
       </c>
       <c r="L15">
-        <v>423</v>
+        <v>-15153288</v>
       </c>
       <c r="M15">
-        <v>143</v>
+        <v>-5127552</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1452,40 +1518,40 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>1484458</v>
+        <v>3976114</v>
       </c>
       <c r="C17">
-        <v>4438196</v>
+        <v>10021173</v>
       </c>
       <c r="D17">
-        <v>7533507</v>
+        <v>7293025</v>
       </c>
       <c r="E17">
-        <v>7099464</v>
+        <v>7321180</v>
       </c>
       <c r="F17">
-        <v>4797309</v>
+        <v>15702297</v>
       </c>
       <c r="G17">
-        <v>1209208</v>
+        <v>8245520</v>
       </c>
       <c r="H17">
-        <v>9070175</v>
+        <v>31557629</v>
       </c>
       <c r="I17">
-        <v>5086746</v>
+        <v>-31319150</v>
       </c>
       <c r="J17">
-        <v>4497710</v>
+        <v>-28454491</v>
       </c>
       <c r="K17">
-        <v>4688298</v>
+        <v>-26222842</v>
       </c>
       <c r="L17">
-        <v>4417423</v>
+        <v>-25979626</v>
       </c>
       <c r="M17">
-        <v>5086535</v>
+        <v>-44080324</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1493,40 +1559,40 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-48563739</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-44911835</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-39931994</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-33259545</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-26550772</v>
       </c>
       <c r="G18">
-        <v>614860</v>
+        <v>-18944955</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-22438314</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-35610381</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-45564316</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-35978501</v>
       </c>
       <c r="L18">
-        <v>2020218</v>
+        <v>-37349605</v>
       </c>
       <c r="M18">
-        <v>4272744</v>
+        <v>-16290029</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1575,40 +1641,40 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>3976114</v>
+        <v>-1635754</v>
       </c>
       <c r="C20">
-        <v>10021173</v>
+        <v>-1635754</v>
       </c>
       <c r="D20">
-        <v>7293025</v>
+        <v>-1635754</v>
       </c>
       <c r="E20">
-        <v>7321180</v>
+        <v>-1635754</v>
       </c>
       <c r="F20">
-        <v>15702297</v>
+        <v>-1635754</v>
       </c>
       <c r="G20">
-        <v>8245520</v>
+        <v>-1635754</v>
       </c>
       <c r="H20">
-        <v>31557629</v>
+        <v>-1635754</v>
       </c>
       <c r="I20">
-        <v>-31319150</v>
+        <v>-2305032</v>
       </c>
       <c r="J20">
-        <v>-28454491</v>
+        <v>-1638344</v>
       </c>
       <c r="K20">
-        <v>-26222842</v>
+        <v>-1638344</v>
       </c>
       <c r="L20">
-        <v>-25979626</v>
+        <v>-720690</v>
       </c>
       <c r="M20">
-        <v>-44080324</v>
+        <v>-1387377</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1616,40 +1682,40 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="C21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="D21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="E21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="F21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="G21">
-        <v>-1635754</v>
+        <v>-0</v>
       </c>
       <c r="H21">
-        <v>-1635754</v>
+        <v>-4973984</v>
       </c>
       <c r="I21">
-        <v>-2305032</v>
+        <v>-4246174</v>
       </c>
       <c r="J21">
-        <v>-1638344</v>
+        <v>-10559357</v>
       </c>
       <c r="K21">
-        <v>-1638344</v>
+        <v>9220158</v>
       </c>
       <c r="L21">
-        <v>-720690</v>
+        <v>-0</v>
       </c>
       <c r="M21">
-        <v>-1387377</v>
+        <v>-13786568</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1657,40 +1723,40 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>-48563739</v>
+        <v>65129727</v>
       </c>
       <c r="C22">
-        <v>-44911835</v>
+        <v>68768964</v>
       </c>
       <c r="D22">
-        <v>-39931994</v>
+        <v>76390612</v>
       </c>
       <c r="E22">
-        <v>-33259545</v>
+        <v>85329746</v>
       </c>
       <c r="F22">
-        <v>-26550772</v>
+        <v>92079543</v>
       </c>
       <c r="G22">
-        <v>-18944955</v>
+        <v>101471518</v>
       </c>
       <c r="H22">
-        <v>-22438314</v>
+        <v>116104442</v>
       </c>
       <c r="I22">
-        <v>-35610381</v>
+        <v>90644705</v>
       </c>
       <c r="J22">
-        <v>-45564316</v>
+        <v>78058009</v>
       </c>
       <c r="K22">
-        <v>-35978501</v>
+        <v>106845688</v>
       </c>
       <c r="L22">
-        <v>-37349605</v>
+        <v>98706203</v>
       </c>
       <c r="M22">
-        <v>-16290029</v>
+        <v>91637041</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1698,40 +1764,40 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>66614184</v>
+        <v>109853</v>
       </c>
       <c r="C23">
-        <v>73207159</v>
+        <v>463186</v>
       </c>
       <c r="D23">
-        <v>83924118</v>
+        <v>45114</v>
       </c>
       <c r="E23">
-        <v>92429210</v>
+        <v>283870</v>
       </c>
       <c r="F23">
-        <v>96876852</v>
+        <v>168265</v>
       </c>
       <c r="G23">
-        <v>103295586</v>
+        <v>171316</v>
       </c>
       <c r="H23">
-        <v>130148600</v>
+        <v>239939</v>
       </c>
       <c r="I23">
-        <v>99977624</v>
+        <v>516729</v>
       </c>
       <c r="J23">
-        <v>93115076</v>
+        <v>199974</v>
       </c>
       <c r="K23">
-        <v>102313827</v>
+        <v>684778</v>
       </c>
       <c r="L23">
-        <v>105143844</v>
+        <v>400802</v>
       </c>
       <c r="M23">
-        <v>114782887</v>
+        <v>237873</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1739,40 +1805,40 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>13579311</v>
+        <v>109853</v>
       </c>
       <c r="C24">
-        <v>14848488</v>
+        <v>463186</v>
       </c>
       <c r="D24">
-        <v>16181625</v>
+        <v>45114</v>
       </c>
       <c r="E24">
-        <v>16950041</v>
+        <v>283870</v>
       </c>
       <c r="F24">
-        <v>19167458</v>
+        <v>168265</v>
       </c>
       <c r="G24">
-        <v>21055364</v>
+        <v>171316</v>
       </c>
       <c r="H24">
-        <v>22222666</v>
+        <v>239939</v>
       </c>
       <c r="I24">
-        <v>18212088</v>
+        <v>516729</v>
       </c>
       <c r="J24">
-        <v>16310457</v>
+        <v>199974</v>
       </c>
       <c r="K24">
-        <v>18153676</v>
+        <v>684778</v>
       </c>
       <c r="L24">
-        <v>17967183</v>
+        <v>400802</v>
       </c>
       <c r="M24">
-        <v>18681899</v>
+        <v>237873</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1780,40 +1846,40 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>80193495</v>
+        <v>65239580</v>
       </c>
       <c r="C25">
-        <v>88055647</v>
+        <v>69232150</v>
       </c>
       <c r="D25">
-        <v>100105743</v>
+        <v>76435726</v>
       </c>
       <c r="E25">
-        <v>109379251</v>
+        <v>85613616</v>
       </c>
       <c r="F25">
-        <v>116044309</v>
+        <v>92247808</v>
       </c>
       <c r="G25">
-        <v>124350949</v>
+        <v>101642834</v>
       </c>
       <c r="H25">
-        <v>152371266</v>
+        <v>116344381</v>
       </c>
       <c r="I25">
-        <v>118189712</v>
+        <v>91161434</v>
       </c>
       <c r="J25">
-        <v>109425533</v>
+        <v>78257983</v>
       </c>
       <c r="K25">
-        <v>120467503</v>
+        <v>107530466</v>
       </c>
       <c r="L25">
-        <v>123111026</v>
+        <v>99107005</v>
       </c>
       <c r="M25">
-        <v>133464785</v>
+        <v>91874914</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1821,40 +1887,40 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>109853</v>
+        <v>2410781</v>
       </c>
       <c r="C26">
-        <v>463186</v>
+        <v>2813731</v>
       </c>
       <c r="D26">
-        <v>45114</v>
+        <v>3005001</v>
       </c>
       <c r="E26">
-        <v>283870</v>
+        <v>3363566</v>
       </c>
       <c r="F26">
-        <v>168265</v>
+        <v>3381590</v>
       </c>
       <c r="G26">
-        <v>171316</v>
+        <v>3479147</v>
       </c>
       <c r="H26">
-        <v>239939</v>
+        <v>4267043</v>
       </c>
       <c r="I26">
-        <v>516729</v>
+        <v>3359813</v>
       </c>
       <c r="J26">
-        <v>199974</v>
+        <v>2309868</v>
       </c>
       <c r="K26">
-        <v>684778</v>
+        <v>2553922</v>
       </c>
       <c r="L26">
-        <v>400802</v>
+        <v>1822762</v>
       </c>
       <c r="M26">
-        <v>237873</v>
+        <v>1937742</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1865,37 +1931,37 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>39847</v>
       </c>
       <c r="D27">
-        <v>54621</v>
+        <v>45461</v>
       </c>
       <c r="E27">
-        <v>33613</v>
+        <v>46018</v>
       </c>
       <c r="F27">
-        <v>25212</v>
+        <v>53031</v>
       </c>
       <c r="G27">
-        <v>67224</v>
+        <v>97227</v>
       </c>
       <c r="H27">
-        <v>84031</v>
+        <v>97821</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>81835</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>51167</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>186638</v>
       </c>
       <c r="L27">
-        <v>33613</v>
+        <v>148706</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>97875</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1903,40 +1969,40 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>176497</v>
       </c>
       <c r="C28">
-        <v>45000</v>
+        <v>638191</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>728280</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>880994</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>532742</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1450332</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>932103</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>903165</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>815064</v>
       </c>
       <c r="K28">
-        <v>159834</v>
+        <v>780640</v>
       </c>
       <c r="L28">
-        <v>166807</v>
+        <v>4927090</v>
       </c>
       <c r="M28">
-        <v>42015</v>
+        <v>6346508</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1959,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>16806</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>4202</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1974,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>12606</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>12605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1985,40 +2051,40 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>117647</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>352941</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>302521</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>554622</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>252101</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>168067</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>84034</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>268908</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>302521</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>168067</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>285714</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>235294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2026,40 +2092,40 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2587278</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3491769</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3778742</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4290578</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3967363</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>5026706</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5296967</v>
       </c>
       <c r="I31">
-        <v>102452</v>
+        <v>4344813</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3176099</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3521200</v>
       </c>
       <c r="L31">
-        <v>2109461</v>
+        <v>6898558</v>
       </c>
       <c r="M31">
-        <v>1329646</v>
+        <v>8382125</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2067,40 +2133,40 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>58850</v>
+        <v>15063769</v>
       </c>
       <c r="C32">
-        <v>59580</v>
+        <v>19286684</v>
       </c>
       <c r="D32">
-        <v>51812</v>
+        <v>23715132</v>
       </c>
       <c r="E32">
-        <v>-22364</v>
+        <v>24049505</v>
       </c>
       <c r="F32">
-        <v>-13474</v>
+        <v>23964767</v>
       </c>
       <c r="G32">
-        <v>45565</v>
+        <v>22264572</v>
       </c>
       <c r="H32">
-        <v>53958</v>
+        <v>31292841</v>
       </c>
       <c r="I32">
-        <v>-148864</v>
+        <v>23298834</v>
       </c>
       <c r="J32">
-        <v>-50477</v>
+        <v>20808167</v>
       </c>
       <c r="K32">
-        <v>-17842</v>
+        <v>22841974</v>
       </c>
       <c r="L32">
-        <v>116319</v>
+        <v>22384606</v>
       </c>
       <c r="M32">
-        <v>126474</v>
+        <v>23768434</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2111,37 +2177,37 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>39847</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>45461</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>46018</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>53031</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>97227</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>97821</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>81835</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>51167</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>186638</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>148706</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>97875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2152,37 +2218,37 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>180670</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>319326</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>315123</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>268903</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>537810</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>705878</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>680669</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>563020</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>470581</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>182352</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>327730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2196,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>109242</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>109252</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>264710</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>138657</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>155463</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>176471</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2220,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>71428</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>109245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2231,40 +2297,40 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>2410781</v>
+        <v>15063769</v>
       </c>
       <c r="C36">
-        <v>2813731</v>
+        <v>19286684</v>
       </c>
       <c r="D36">
-        <v>2895759</v>
+        <v>23715132</v>
       </c>
       <c r="E36">
-        <v>3254314</v>
+        <v>24049505</v>
       </c>
       <c r="F36">
-        <v>3116880</v>
+        <v>23964767</v>
       </c>
       <c r="G36">
-        <v>3340490</v>
+        <v>22264572</v>
       </c>
       <c r="H36">
-        <v>4427452</v>
+        <v>31292841</v>
       </c>
       <c r="I36">
-        <v>3183342</v>
+        <v>23298834</v>
       </c>
       <c r="J36">
-        <v>2629528</v>
+        <v>20808167</v>
       </c>
       <c r="K36">
-        <v>2634529</v>
+        <v>22841974</v>
       </c>
       <c r="L36">
-        <v>1937825</v>
+        <v>22384606</v>
       </c>
       <c r="M36">
-        <v>1828497</v>
+        <v>23768434</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2272,40 +2338,40 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>82890627</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>92010603</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>103929600</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>113953699</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>120179938</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>128934112</v>
       </c>
       <c r="H37">
-        <v>-315872</v>
+        <v>152934189</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>118805081</v>
       </c>
       <c r="J37">
-        <v>-319660</v>
+        <v>102242249</v>
       </c>
       <c r="K37">
-        <v>-80607</v>
+        <v>133893640</v>
       </c>
       <c r="L37">
-        <v>-186491</v>
+        <v>128390169</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>124025473</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2313,40 +2379,40 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>114966684</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>171258789</v>
       </c>
       <c r="J38">
-        <v>61715</v>
+        <v>171258789</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>171258789</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>171258789</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>171258789</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2354,40 +2420,40 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1484458</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4438196</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7533507</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>7099464</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4797309</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1209208</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>9070175</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5086746</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>4497710</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>4688298</v>
       </c>
       <c r="L39">
-        <v>939133</v>
+        <v>4417423</v>
       </c>
       <c r="M39">
-        <v>1717735</v>
+        <v>5086535</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2410,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>28050</v>
+        <v>614860</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2419,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>31362</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>63917</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>28050</v>
+        <v>2020218</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>4272744</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2436,40 +2502,40 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-3613578</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-9671304</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-4301349</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-2062819</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-10402912</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>-1159977</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1371819</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-7133347</v>
       </c>
       <c r="J41">
-        <v>25524</v>
+        <v>-6984272</v>
       </c>
       <c r="K41">
-        <v>14742</v>
+        <v>-9793572</v>
       </c>
       <c r="L41">
-        <v>64465</v>
+        <v>-8502665</v>
       </c>
       <c r="M41">
-        <v>27257</v>
+        <v>-4077450</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2477,40 +2543,40 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3976114</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>10021173</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7293025</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>7321180</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>15702297</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>8245520</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>31557629</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-31319150</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-28454491</v>
       </c>
       <c r="K42">
-        <v>309342</v>
+        <v>-26222842</v>
       </c>
       <c r="L42">
-        <v>325152</v>
+        <v>-25979626</v>
       </c>
       <c r="M42">
-        <v>230442</v>
+        <v>-44080324</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2518,40 +2584,40 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1635754</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>-2305032</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-1638344</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-1638344</v>
       </c>
       <c r="L43">
-        <v>32079</v>
+        <v>-720690</v>
       </c>
       <c r="M43">
-        <v>32386</v>
+        <v>-1387377</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2559,40 +2625,40 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-48563739</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-44911835</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-39931994</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-33259545</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-26550772</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-18944955</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-22438314</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-35610381</v>
       </c>
       <c r="J44">
-        <v>74638</v>
+        <v>-45564316</v>
       </c>
       <c r="K44">
-        <v>44942</v>
+        <v>-35978501</v>
       </c>
       <c r="L44">
-        <v>89990</v>
+        <v>-37349605</v>
       </c>
       <c r="M44">
-        <v>45425</v>
+        <v>-16290029</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2600,40 +2666,40 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>66614184</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>73207159</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>83924118</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>92429210</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>96876852</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>103295586</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>130148600</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>99977624</v>
       </c>
       <c r="J45">
-        <v>49410</v>
+        <v>93115076</v>
       </c>
       <c r="K45">
-        <v>49410</v>
+        <v>102313827</v>
       </c>
       <c r="L45">
-        <v>82485</v>
+        <v>105143844</v>
       </c>
       <c r="M45">
-        <v>53550</v>
+        <v>114782887</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2641,40 +2707,40 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>13579311</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>14848488</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>16181625</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>16950041</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>19167458</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>21055364</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>22222666</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>18212088</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>16310457</v>
       </c>
       <c r="K46">
-        <v>16183</v>
+        <v>18153676</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>17967183</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>18681899</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2682,40 +2748,40 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>80193495</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>88055647</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>100105743</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>109379251</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>116044309</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>124350949</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>152371266</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>118189712</v>
       </c>
       <c r="J47">
-        <v>82800</v>
+        <v>109425533</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>120467503</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>123111026</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>133464785</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2723,40 +2789,40 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>109853</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>463186</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>45114</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>283870</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>168265</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>171316</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>239939</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>516729</v>
       </c>
       <c r="J48">
-        <v>2290771</v>
+        <v>199974</v>
       </c>
       <c r="K48">
-        <v>267055</v>
+        <v>684778</v>
       </c>
       <c r="L48">
-        <v>963508</v>
+        <v>400802</v>
       </c>
       <c r="M48">
-        <v>992791</v>
+        <v>237873</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2770,34 +2836,34 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>54621</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>33613</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>25212</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>67224</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>84031</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>664187</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>70828</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>198604</v>
+        <v>33613</v>
       </c>
       <c r="M49">
-        <v>243858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2808,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2817,28 +2883,28 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>274066</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>547255</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>278402</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>281891</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>804705</v>
+        <v>159834</v>
       </c>
       <c r="L50">
-        <v>486198</v>
+        <v>166807</v>
       </c>
       <c r="M50">
-        <v>467704</v>
+        <v>42015</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2861,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>16806</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4202</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2873,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>309004</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>375435</v>
+        <v>12606</v>
       </c>
       <c r="M51">
-        <v>5398</v>
+        <v>12605</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2887,40 +2953,40 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>117647</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>352941</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>302521</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>554622</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>252101</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>168067</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>84034</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>268908</v>
       </c>
       <c r="J52">
-        <v>6319</v>
+        <v>302521</v>
       </c>
       <c r="K52">
-        <v>6119</v>
+        <v>168067</v>
       </c>
       <c r="L52">
-        <v>27831</v>
+        <v>285714</v>
       </c>
       <c r="M52">
-        <v>22359</v>
+        <v>235294</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2928,19 +2994,19 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>165731</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>308806</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>680826</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4269</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>-4269</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2949,19 +3015,19 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>102452</v>
       </c>
       <c r="J53">
-        <v>185146</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>2109461</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1329646</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2969,40 +3035,40 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>2322723</v>
+        <v>58850</v>
       </c>
       <c r="C54">
-        <v>2498506</v>
+        <v>59580</v>
       </c>
       <c r="D54">
-        <v>2701210</v>
+        <v>51812</v>
       </c>
       <c r="E54">
-        <v>3431923</v>
+        <v>-22364</v>
       </c>
       <c r="F54">
-        <v>3036117</v>
+        <v>-13474</v>
       </c>
       <c r="G54">
-        <v>3029519</v>
+        <v>45565</v>
       </c>
       <c r="H54">
-        <v>4487804</v>
+        <v>53958</v>
       </c>
       <c r="I54">
-        <v>4431090</v>
+        <v>-148864</v>
       </c>
       <c r="J54">
-        <v>4543133</v>
+        <v>-50477</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>-17842</v>
       </c>
       <c r="L54">
-        <v>10658087</v>
+        <v>116319</v>
       </c>
       <c r="M54">
-        <v>4398439</v>
+        <v>126474</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3013,37 +3079,37 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>39847</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>45461</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>46018</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>53031</v>
       </c>
       <c r="G55">
-        <v>158950</v>
+        <v>97227</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>97821</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>81835</v>
       </c>
       <c r="J55">
-        <v>177716</v>
+        <v>51167</v>
       </c>
       <c r="K55">
-        <v>362199</v>
+        <v>186638</v>
       </c>
       <c r="L55">
-        <v>158950</v>
+        <v>148706</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>97875</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3051,40 +3117,40 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>234812</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>366055</v>
+        <v>180670</v>
       </c>
       <c r="D56">
-        <v>317055</v>
+        <v>319326</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>315123</v>
       </c>
       <c r="F56">
-        <v>523293</v>
+        <v>268903</v>
       </c>
       <c r="G56">
-        <v>272950</v>
+        <v>537810</v>
       </c>
       <c r="H56">
-        <v>546498</v>
+        <v>705878</v>
       </c>
       <c r="I56">
-        <v>137448</v>
+        <v>680669</v>
       </c>
       <c r="J56">
-        <v>144637</v>
+        <v>563020</v>
       </c>
       <c r="K56">
-        <v>222341</v>
+        <v>470581</v>
       </c>
       <c r="L56">
-        <v>365302</v>
+        <v>182352</v>
       </c>
       <c r="M56">
-        <v>547121</v>
+        <v>327730</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3098,22 +3164,22 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>60000</v>
+        <v>109242</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>109252</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>264710</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>138657</v>
       </c>
       <c r="H57">
-        <v>106479</v>
+        <v>155463</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>176471</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3122,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>71428</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>109245</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3133,40 +3199,40 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>2112699</v>
+        <v>2410781</v>
       </c>
       <c r="C58">
-        <v>2139237</v>
+        <v>2813731</v>
       </c>
       <c r="D58">
-        <v>2197468</v>
+        <v>2895759</v>
       </c>
       <c r="E58">
-        <v>2263069</v>
+        <v>3254314</v>
       </c>
       <c r="F58">
-        <v>3420062</v>
+        <v>3116880</v>
       </c>
       <c r="G58">
-        <v>1834367</v>
+        <v>3340490</v>
       </c>
       <c r="H58">
-        <v>1946423</v>
+        <v>4427452</v>
       </c>
       <c r="I58">
-        <v>1890285</v>
+        <v>3183342</v>
       </c>
       <c r="J58">
-        <v>1770285</v>
+        <v>2629528</v>
       </c>
       <c r="K58">
-        <v>1549451</v>
+        <v>2634529</v>
       </c>
       <c r="L58">
-        <v>1549451</v>
+        <v>1937825</v>
       </c>
       <c r="M58">
-        <v>184493</v>
+        <v>1828497</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3174,40 +3240,40 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>255564</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>250050</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>263498</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>263498</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>247815</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>212942</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>225209</v>
+        <v>-315872</v>
       </c>
       <c r="I59">
-        <v>214425</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>201605</v>
+        <v>-319660</v>
       </c>
       <c r="K59">
-        <v>82964</v>
+        <v>-80607</v>
       </c>
       <c r="L59">
-        <v>82964</v>
+        <v>-186491</v>
       </c>
       <c r="M59">
-        <v>-60414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3215,40 +3281,40 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>383808</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>387640</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1745965</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>-561116</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>602046</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>605725</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>610931</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>613986</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>3072560</v>
+        <v>61715</v>
       </c>
       <c r="K60">
-        <v>2371952</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1520558</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1305838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3277,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>295311</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3286,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>939133</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1717735</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3312,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>28050</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3321,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>31362</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>63917</v>
       </c>
       <c r="L62">
-        <v>181779</v>
+        <v>28050</v>
       </c>
       <c r="M62">
-        <v>183519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3359,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>25524</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>14742</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>64465</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>27257</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3406,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>309342</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>325152</v>
       </c>
       <c r="M64">
-        <v>3017</v>
+        <v>230442</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3426,34 +3492,34 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1104576</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>284693</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>290400</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>292524</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>294432</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>296567</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>223913</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>254249</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>509943</v>
+        <v>32079</v>
       </c>
       <c r="M65">
-        <v>257407</v>
+        <v>32386</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3476,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>182112</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3485,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>74638</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>44942</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>89990</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3514,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>288455</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3526,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>49410</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>49410</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>82485</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>53550</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3558,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1097000</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>781400</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>573400</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>279990</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>423490</v>
+        <v>16183</v>
       </c>
       <c r="L68">
-        <v>467415</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>593850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3608,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>82800</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3617,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>605000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3634,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>125200</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3649,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2290771</v>
       </c>
       <c r="K70">
-        <v>221700</v>
+        <v>267055</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>963508</v>
       </c>
       <c r="M70">
-        <v>432880</v>
+        <v>992791</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3666,16 +3732,16 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>529686</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>122874</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>25916</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>18345</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3690,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>664187</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>70828</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>198604</v>
       </c>
       <c r="M71">
-        <v>20454</v>
+        <v>243858</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3719,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>274066</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>547255</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>278402</v>
       </c>
       <c r="I72">
-        <v>453800</v>
+        <v>281891</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>804705</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>486198</v>
       </c>
       <c r="M72">
-        <v>384300</v>
+        <v>467704</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3772,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>469200</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>309004</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>375435</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3789,40 +3855,40 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>718478</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>-49400</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>6319</v>
       </c>
       <c r="K74">
-        <v>392737</v>
+        <v>6119</v>
       </c>
       <c r="L74">
-        <v>393538</v>
+        <v>27831</v>
       </c>
       <c r="M74">
-        <v>200000</v>
+        <v>22359</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3830,40 +3896,40 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>10221200</v>
+        <v>165731</v>
       </c>
       <c r="C75">
-        <v>4462191</v>
+        <v>308806</v>
       </c>
       <c r="D75">
-        <v>4602274</v>
+        <v>680826</v>
       </c>
       <c r="E75">
-        <v>7195873</v>
+        <v>4269</v>
       </c>
       <c r="F75">
-        <v>1262491</v>
+        <v>-4269</v>
       </c>
       <c r="G75">
-        <v>16997395</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>6088551</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>5867738</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>3101392</v>
+        <v>185146</v>
       </c>
       <c r="K75">
-        <v>5331272</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>5459880</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>5625814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3871,40 +3937,40 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>2322723</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2498506</v>
       </c>
       <c r="D76">
-        <v>190200</v>
+        <v>2701210</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3431923</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>3036117</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>3029519</v>
       </c>
       <c r="H76">
-        <v>5120000</v>
+        <v>4487804</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4431090</v>
       </c>
       <c r="J76">
-        <v>-5120000</v>
+        <v>4543133</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>10658087</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>4398439</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3912,40 +3978,40 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>-2339471</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>-286751</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>245349</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>567645</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2007598</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1105090</v>
+        <v>158950</v>
       </c>
       <c r="H77">
-        <v>1483330</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1990430</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>350243</v>
+        <v>177716</v>
       </c>
       <c r="K77">
-        <v>1345942</v>
+        <v>362199</v>
       </c>
       <c r="L77">
-        <v>1125429</v>
+        <v>158950</v>
       </c>
       <c r="M77">
-        <v>946859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3953,40 +4019,40 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>114277</v>
+        <v>234812</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>366055</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>317055</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>523293</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>272950</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>546498</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>137448</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>144637</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>222341</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>365302</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>547121</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3994,37 +4060,37 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>639695</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>417184</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>900000</v>
+        <v>60000</v>
       </c>
       <c r="E79">
-        <v>-179308</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>-120692</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>729449</v>
+        <v>106479</v>
       </c>
       <c r="I79">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>583028</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>127500</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4035,40 +4101,40 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>180000</v>
+        <v>2112699</v>
       </c>
       <c r="C80">
-        <v>180000</v>
+        <v>2139237</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2197468</v>
       </c>
       <c r="E80">
-        <v>180000</v>
+        <v>2263069</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3420062</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1834367</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1946423</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1890285</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1770285</v>
       </c>
       <c r="K80">
-        <v>1050000</v>
+        <v>1549451</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1549451</v>
       </c>
       <c r="M80">
-        <v>1300000</v>
+        <v>184493</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4076,40 +4142,40 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>255564</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>250050</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>263498</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>263498</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>247815</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>212942</v>
       </c>
       <c r="H81">
-        <v>321728</v>
+        <v>225209</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>214425</v>
       </c>
       <c r="J81">
-        <v>443823</v>
+        <v>201605</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>82964</v>
       </c>
       <c r="L81">
-        <v>149400</v>
+        <v>82964</v>
       </c>
       <c r="M81">
-        <v>3403</v>
+        <v>-60414</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4117,40 +4183,40 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>26076</v>
+        <v>383808</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>387640</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1745965</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-561116</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>602046</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>605725</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>610931</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>613986</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>3072560</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>2371952</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1520558</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1305838</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4176,22 +4242,22 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>4973984</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>4246174</v>
+        <v>295311</v>
       </c>
       <c r="J83">
-        <v>10559357</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>-9220158</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>13786568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4199,40 +4265,40 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>3068992</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>2714509</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1985520</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2304257</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>5462045</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>4640344</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>3373638</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>4557845</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>3759798</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>3441046</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>181779</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>183519</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4240,7 +4306,7 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>81612</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4261,19 +4327,19 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>29073</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>923747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4281,40 +4347,40 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>8031626</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>7938482</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>7375017</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>6694642</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>5947075</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>12890780</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>6403293</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>6800150</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>6468886</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>9784271</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>3737367</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>3331824</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4322,40 +4388,40 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>1194948</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>1289174</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>1436532</v>
+        <v>1104576</v>
       </c>
       <c r="E87">
-        <v>-4079191</v>
+        <v>284693</v>
       </c>
       <c r="F87">
-        <v>2712206</v>
+        <v>290400</v>
       </c>
       <c r="G87">
-        <v>937356</v>
+        <v>292524</v>
       </c>
       <c r="H87">
-        <v>1842088</v>
+        <v>294432</v>
       </c>
       <c r="I87">
-        <v>1194407</v>
+        <v>296567</v>
       </c>
       <c r="J87">
-        <v>806865</v>
+        <v>223913</v>
       </c>
       <c r="K87">
-        <v>1021435</v>
+        <v>254249</v>
       </c>
       <c r="L87">
-        <v>489105</v>
+        <v>509943</v>
       </c>
       <c r="M87">
-        <v>-102181</v>
+        <v>257407</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4363,40 +4429,40 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>2326999</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>3855856</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>4387399</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>4850426</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>4467989</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>5393937</v>
+        <v>182112</v>
       </c>
       <c r="H88">
-        <v>6787511</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>5236837</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>4824557</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>5317999</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>5509924</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>5959167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4404,40 +4470,40 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>654177</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>663317</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>669312</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>678554</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>2127021</v>
+        <v>288455</v>
       </c>
       <c r="G89">
-        <v>761868</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>2170426</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>773434</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>776550</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>1508628</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>782585</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>789312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4457,28 +4523,28 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3605542</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>501471</v>
+        <v>1097000</v>
       </c>
       <c r="H90">
-        <v>869283</v>
+        <v>781400</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>573400</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>279990</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>423490</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>467415</v>
       </c>
       <c r="M90">
-        <v>30000</v>
+        <v>593850</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4486,40 +4552,40 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>5695412</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>9282254</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>9315436</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>5864914</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>5767034</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>-3460321</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3019060</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>7016190</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>4221776</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>5869748</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>5784242</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>3544937</v>
+        <v>605000</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4527,22 +4593,22 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>59424</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>45268</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>6590</v>
+        <v>125200</v>
       </c>
       <c r="F92">
-        <v>8110</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>41840</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4554,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>221700</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>432880</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4568,16 +4634,16 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>529686</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>122874</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>25916</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>18345</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4586,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>125366</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4601,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>20454</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4615,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>269478</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4630,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>453800</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4642,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>384300</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4650,40 +4716,40 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>13908</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>212830</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>119156</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>30322</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>92380</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>152440</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>167207</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>35809</v>
+        <v>469200</v>
       </c>
       <c r="K95">
-        <v>34674</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>157709</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>126704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4691,40 +4757,40 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>399732</v>
+        <v>200000</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>47968</v>
+        <v>200000</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>351402</v>
+        <v>718478</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>-49400</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>392737</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>393538</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4732,40 +4798,40 @@
         <v>107</v>
       </c>
       <c r="B97">
-        <v>171487</v>
+        <v>10221200</v>
       </c>
       <c r="C97">
-        <v>104720</v>
+        <v>4462191</v>
       </c>
       <c r="D97">
-        <v>88207</v>
+        <v>4602274</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>7195873</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1262491</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>16997395</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>6088551</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>5867738</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3101392</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>5331272</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>5459880</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>5625814</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4773,31 +4839,31 @@
         <v>108</v>
       </c>
       <c r="B98">
-        <v>199000</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>190200</v>
       </c>
       <c r="E98">
-        <v>329654</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>-392288</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>5120000</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>-5120000</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4814,40 +4880,40 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>8320433</v>
+        <v>-2339471</v>
       </c>
       <c r="C99">
-        <v>25565650</v>
+        <v>-286751</v>
       </c>
       <c r="D99">
-        <v>-14535858</v>
+        <v>245349</v>
       </c>
       <c r="E99">
-        <v>4621152</v>
+        <v>567645</v>
       </c>
       <c r="F99">
-        <v>4964936</v>
+        <v>2007598</v>
       </c>
       <c r="G99">
-        <v>32479106</v>
+        <v>1105090</v>
       </c>
       <c r="H99">
-        <v>43397678</v>
+        <v>1483330</v>
       </c>
       <c r="I99">
-        <v>8450673</v>
+        <v>1990430</v>
       </c>
       <c r="J99">
-        <v>8465179</v>
+        <v>350243</v>
       </c>
       <c r="K99">
-        <v>8532466</v>
+        <v>1345942</v>
       </c>
       <c r="L99">
-        <v>11712749</v>
+        <v>1125429</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>946859</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4855,7 +4921,7 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>114277</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4873,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>52427</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4888,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>9248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4896,37 +4962,37 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>639695</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>417184</v>
       </c>
       <c r="D101">
-        <v>106650</v>
+        <v>900000</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-179308</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>-120692</v>
       </c>
       <c r="H101">
-        <v>618535</v>
+        <v>729449</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>583028</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>127500</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -4937,16 +5003,16 @@
         <v>112</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4955,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>5871218</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4964,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1050000</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4990,28 +5056,28 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>9397</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>-41840</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>321728</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>443823</v>
       </c>
       <c r="K103">
-        <v>52012</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>149400</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5019,7 +5085,7 @@
         <v>114</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>26076</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5028,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>90677</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -5043,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>211670</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -5060,40 +5126,40 @@
         <v>115</v>
       </c>
       <c r="B105">
-        <v>6907071</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>6890680</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>7259745</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>7259745</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>3103243</v>
+        <v>4973984</v>
       </c>
       <c r="I105">
-        <v>1569786</v>
+        <v>4246174</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>10559357</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>-9220158</v>
       </c>
       <c r="L105">
-        <v>10678625</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>107274</v>
+        <v>13786568</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5101,40 +5167,40 @@
         <v>116</v>
       </c>
       <c r="B106">
-        <v>1822097</v>
+        <v>3068992</v>
       </c>
       <c r="C106">
-        <v>1822097</v>
+        <v>2714509</v>
       </c>
       <c r="D106">
-        <v>1822097</v>
+        <v>1985520</v>
       </c>
       <c r="E106">
-        <v>1822097</v>
+        <v>2304257</v>
       </c>
       <c r="F106">
-        <v>1822097</v>
+        <v>5462045</v>
       </c>
       <c r="G106">
-        <v>1822097</v>
+        <v>4640344</v>
       </c>
       <c r="H106">
-        <v>1822097</v>
+        <v>3373638</v>
       </c>
       <c r="I106">
-        <v>1803662</v>
+        <v>4557845</v>
       </c>
       <c r="J106">
-        <v>1845504</v>
+        <v>3759798</v>
       </c>
       <c r="K106">
-        <v>1824524</v>
+        <v>3441046</v>
       </c>
       <c r="L106">
-        <v>1824524</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>1824524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5142,40 +5208,40 @@
         <v>117</v>
       </c>
       <c r="B107">
-        <v>1475715</v>
+        <v>81612</v>
       </c>
       <c r="C107">
-        <v>1475715</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>1587547</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1491547</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1888490</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>628214</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>748214</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>632292</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>632292</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>632292</v>
+        <v>29073</v>
       </c>
       <c r="L107">
-        <v>632292</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>3624772</v>
+        <v>923747</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5183,40 +5249,40 @@
         <v>118</v>
       </c>
       <c r="B108">
-        <v>379128</v>
+        <v>8031626</v>
       </c>
       <c r="C108">
-        <v>656554</v>
+        <v>7938482</v>
       </c>
       <c r="D108">
-        <v>2818382</v>
+        <v>7375017</v>
       </c>
       <c r="E108">
-        <v>1167274</v>
+        <v>6694642</v>
       </c>
       <c r="F108">
-        <v>1317370</v>
+        <v>5947075</v>
       </c>
       <c r="G108">
-        <v>642870</v>
+        <v>12890780</v>
       </c>
       <c r="H108">
-        <v>2246815</v>
+        <v>6403293</v>
       </c>
       <c r="I108">
-        <v>1799804</v>
+        <v>6800150</v>
       </c>
       <c r="J108">
-        <v>1443968</v>
+        <v>6468886</v>
       </c>
       <c r="K108">
-        <v>2999565</v>
+        <v>9784271</v>
       </c>
       <c r="L108">
-        <v>2999565</v>
+        <v>3737367</v>
       </c>
       <c r="M108">
-        <v>-2679901</v>
+        <v>3331824</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5224,40 +5290,40 @@
         <v>119</v>
       </c>
       <c r="B109">
-        <v>2449313</v>
+        <v>1194948</v>
       </c>
       <c r="C109">
-        <v>3303871</v>
+        <v>1289174</v>
       </c>
       <c r="D109">
-        <v>3074060</v>
+        <v>1436532</v>
       </c>
       <c r="E109">
-        <v>2495352</v>
+        <v>-4079191</v>
       </c>
       <c r="F109">
-        <v>8221139</v>
+        <v>2712206</v>
       </c>
       <c r="G109">
-        <v>1974447</v>
+        <v>937356</v>
       </c>
       <c r="H109">
-        <v>2221514</v>
+        <v>1842088</v>
       </c>
       <c r="I109">
-        <v>1846619</v>
+        <v>1194407</v>
       </c>
       <c r="J109">
-        <v>2234514</v>
+        <v>806865</v>
       </c>
       <c r="K109">
-        <v>6821369</v>
+        <v>1021435</v>
       </c>
       <c r="L109">
-        <v>1755750</v>
+        <v>489105</v>
       </c>
       <c r="M109">
-        <v>1540536</v>
+        <v>-102181</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5265,40 +5331,40 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>2326999</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>3855856</v>
       </c>
       <c r="D110">
-        <v>2035788</v>
+        <v>4387399</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>4850426</v>
       </c>
       <c r="F110">
-        <v>807188</v>
+        <v>4467989</v>
       </c>
       <c r="G110">
-        <v>1421063</v>
+        <v>5393937</v>
       </c>
       <c r="H110">
-        <v>857798</v>
+        <v>6787511</v>
       </c>
       <c r="I110">
-        <v>135769</v>
+        <v>5236837</v>
       </c>
       <c r="J110">
-        <v>3613524</v>
+        <v>4824557</v>
       </c>
       <c r="K110">
-        <v>1195615</v>
+        <v>5317999</v>
       </c>
       <c r="L110">
-        <v>323540</v>
+        <v>5509924</v>
       </c>
       <c r="M110">
-        <v>2370641</v>
+        <v>5959167</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5306,40 +5372,40 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>654177</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>663317</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>669312</v>
       </c>
       <c r="E111">
-        <v>2299269</v>
+        <v>678554</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2127021</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>761868</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2170426</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>773434</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>776550</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1508628</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>782585</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>789312</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5353,34 +5419,34 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>183823</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>35863</v>
+        <v>3605542</v>
       </c>
       <c r="G112">
-        <v>138805</v>
+        <v>501471</v>
       </c>
       <c r="H112">
-        <v>17899</v>
+        <v>869283</v>
       </c>
       <c r="I112">
-        <v>128863</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>116597</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>87306</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>133342</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5388,40 +5454,40 @@
         <v>123</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>5695412</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>9282254</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>9315436</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>5864914</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>5767034</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>-3460321</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3019060</v>
       </c>
       <c r="I113">
-        <v>386000</v>
+        <v>7016190</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>4221776</v>
       </c>
       <c r="K113">
-        <v>127647</v>
+        <v>5869748</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>5784242</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>3544937</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5429,22 +5495,22 @@
         <v>124</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>59424</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>45268</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="F114">
-        <v>201996</v>
+        <v>8110</v>
       </c>
       <c r="G114">
-        <v>604412</v>
+        <v>41840</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5473,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>1311496</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5488,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>125366</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5497,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>235000</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>174336</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5514,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>1311496</v>
+        <v>269478</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5538,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>235000</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>174336</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5552,40 +5618,40 @@
         <v>127</v>
       </c>
       <c r="B117">
-        <v>10094444</v>
+        <v>13908</v>
       </c>
       <c r="C117">
-        <v>10094444</v>
+        <v>212830</v>
       </c>
       <c r="D117">
-        <v>10094444</v>
+        <v>119156</v>
       </c>
       <c r="E117">
-        <v>10094444</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>10094444</v>
+        <v>30322</v>
       </c>
       <c r="G117">
-        <v>-23055363</v>
+        <v>92380</v>
       </c>
       <c r="H117">
-        <v>10094444</v>
+        <v>152440</v>
       </c>
       <c r="I117">
-        <v>13416667</v>
+        <v>167207</v>
       </c>
       <c r="J117">
-        <v>13416667</v>
+        <v>35809</v>
       </c>
       <c r="K117">
-        <v>13416667</v>
+        <v>34674</v>
       </c>
       <c r="L117">
-        <v>13416667</v>
+        <v>157709</v>
       </c>
       <c r="M117">
-        <v>13416667</v>
+        <v>126704</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5593,40 +5659,40 @@
         <v>128</v>
       </c>
       <c r="B118">
-        <v>14898039</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>5192489</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>54151043</v>
+        <v>399732</v>
       </c>
       <c r="E118">
-        <v>52368204</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>48735921</v>
+        <v>47968</v>
       </c>
       <c r="G118">
-        <v>57017716</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>33048685</v>
+        <v>351402</v>
       </c>
       <c r="I118">
-        <v>44641905</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>35771291</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>55368468</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>41960755</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>68303974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5634,40 +5700,40 @@
         <v>129</v>
       </c>
       <c r="B119">
-        <v>139819</v>
+        <v>171487</v>
       </c>
       <c r="C119">
-        <v>139819</v>
+        <v>104720</v>
       </c>
       <c r="D119">
-        <v>139819</v>
+        <v>88207</v>
       </c>
       <c r="E119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>139819</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>139819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5675,40 +5741,40 @@
         <v>130</v>
       </c>
       <c r="B120">
-        <v>30526</v>
+        <v>199000</v>
       </c>
       <c r="C120">
-        <v>30526</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>30526</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>30526</v>
+        <v>329654</v>
       </c>
       <c r="F120">
-        <v>30526</v>
+        <v>-392288</v>
       </c>
       <c r="G120">
-        <v>38062</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>53682</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>53682</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>53682</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>53682</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>53682</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>53682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5716,37 +5782,37 @@
         <v>131</v>
       </c>
       <c r="B121">
-        <v>4302</v>
+        <v>8320433</v>
       </c>
       <c r="C121">
-        <v>4739</v>
+        <v>25565650</v>
       </c>
       <c r="D121">
-        <v>5142</v>
+        <v>-14535858</v>
       </c>
       <c r="E121">
-        <v>5196</v>
+        <v>4621152</v>
       </c>
       <c r="F121">
-        <v>5729</v>
+        <v>4964936</v>
       </c>
       <c r="G121">
-        <v>5937</v>
+        <v>32479106</v>
       </c>
       <c r="H121">
-        <v>5835</v>
+        <v>43397678</v>
       </c>
       <c r="I121">
-        <v>1231</v>
+        <v>8450673</v>
       </c>
       <c r="J121">
-        <v>1518978</v>
+        <v>8465179</v>
       </c>
       <c r="K121">
-        <v>2355483</v>
+        <v>8532466</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>11712749</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -5775,22 +5841,22 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>52427</v>
       </c>
       <c r="I122">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>384490</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>738388</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>85282</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5798,40 +5864,40 @@
         <v>133</v>
       </c>
       <c r="B123">
-        <v>69368</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>45980</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>81341</v>
+        <v>106650</v>
       </c>
       <c r="E123">
-        <v>30002</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>94788</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>153088</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>130599</v>
+        <v>618535</v>
       </c>
       <c r="I123">
-        <v>88781</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>341465</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>34470</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>8605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5854,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>690808</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>5871218</v>
       </c>
       <c r="I124">
-        <v>1026667</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5880,40 +5946,40 @@
         <v>135</v>
       </c>
       <c r="B125">
-        <v>-4333309</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-2356858</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>593818696</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>599753453</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>512400663</v>
+        <v>9397</v>
       </c>
       <c r="G125">
-        <v>413999270</v>
+        <v>-41840</v>
       </c>
       <c r="H125">
-        <v>619579258</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>346430065</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>236912663</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>214617425</v>
+        <v>52012</v>
       </c>
       <c r="L125">
-        <v>187017896</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>117846611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5930,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>90677</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5939,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>-746607106</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>211670</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5962,40 +6028,40 @@
         <v>137</v>
       </c>
       <c r="B127">
-        <v>1456290107</v>
+        <v>6907071</v>
       </c>
       <c r="C127">
-        <v>-704827688</v>
+        <v>6890680</v>
       </c>
       <c r="D127">
-        <v>500309150</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>-254342721</v>
+        <v>7259745</v>
       </c>
       <c r="F127">
-        <v>-234580968</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>-194427735</v>
+        <v>7259745</v>
       </c>
       <c r="H127">
-        <v>773747969</v>
+        <v>3103243</v>
       </c>
       <c r="I127">
-        <v>-311046154</v>
+        <v>1569786</v>
       </c>
       <c r="J127">
-        <v>206219209</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>-234839354</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>10678625</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>107274</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6003,39 +6069,941 @@
         <v>138</v>
       </c>
       <c r="B128">
+        <v>1822097</v>
+      </c>
+      <c r="C128">
+        <v>1822097</v>
+      </c>
+      <c r="D128">
+        <v>1822097</v>
+      </c>
+      <c r="E128">
+        <v>1822097</v>
+      </c>
+      <c r="F128">
+        <v>1822097</v>
+      </c>
+      <c r="G128">
+        <v>1822097</v>
+      </c>
+      <c r="H128">
+        <v>1822097</v>
+      </c>
+      <c r="I128">
+        <v>1803662</v>
+      </c>
+      <c r="J128">
+        <v>1845504</v>
+      </c>
+      <c r="K128">
+        <v>1824524</v>
+      </c>
+      <c r="L128">
+        <v>1824524</v>
+      </c>
+      <c r="M128">
+        <v>1824524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129">
+        <v>1475715</v>
+      </c>
+      <c r="C129">
+        <v>1475715</v>
+      </c>
+      <c r="D129">
+        <v>1587547</v>
+      </c>
+      <c r="E129">
+        <v>1491547</v>
+      </c>
+      <c r="F129">
+        <v>1888490</v>
+      </c>
+      <c r="G129">
+        <v>628214</v>
+      </c>
+      <c r="H129">
+        <v>748214</v>
+      </c>
+      <c r="I129">
+        <v>632292</v>
+      </c>
+      <c r="J129">
+        <v>632292</v>
+      </c>
+      <c r="K129">
+        <v>632292</v>
+      </c>
+      <c r="L129">
+        <v>632292</v>
+      </c>
+      <c r="M129">
+        <v>3624772</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130">
+        <v>379128</v>
+      </c>
+      <c r="C130">
+        <v>656554</v>
+      </c>
+      <c r="D130">
+        <v>2818382</v>
+      </c>
+      <c r="E130">
+        <v>1167274</v>
+      </c>
+      <c r="F130">
+        <v>1317370</v>
+      </c>
+      <c r="G130">
+        <v>642870</v>
+      </c>
+      <c r="H130">
+        <v>2246815</v>
+      </c>
+      <c r="I130">
+        <v>1799804</v>
+      </c>
+      <c r="J130">
+        <v>1443968</v>
+      </c>
+      <c r="K130">
+        <v>2999565</v>
+      </c>
+      <c r="L130">
+        <v>2999565</v>
+      </c>
+      <c r="M130">
+        <v>-2679901</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131">
+        <v>2449313</v>
+      </c>
+      <c r="C131">
+        <v>3303871</v>
+      </c>
+      <c r="D131">
+        <v>3074060</v>
+      </c>
+      <c r="E131">
+        <v>2495352</v>
+      </c>
+      <c r="F131">
+        <v>8221139</v>
+      </c>
+      <c r="G131">
+        <v>1974447</v>
+      </c>
+      <c r="H131">
+        <v>2221514</v>
+      </c>
+      <c r="I131">
+        <v>1846619</v>
+      </c>
+      <c r="J131">
+        <v>2234514</v>
+      </c>
+      <c r="K131">
+        <v>6821369</v>
+      </c>
+      <c r="L131">
+        <v>1755750</v>
+      </c>
+      <c r="M131">
+        <v>1540536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2035788</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>807188</v>
+      </c>
+      <c r="G132">
+        <v>1421063</v>
+      </c>
+      <c r="H132">
+        <v>857798</v>
+      </c>
+      <c r="I132">
+        <v>135769</v>
+      </c>
+      <c r="J132">
+        <v>3613524</v>
+      </c>
+      <c r="K132">
+        <v>1195615</v>
+      </c>
+      <c r="L132">
+        <v>323540</v>
+      </c>
+      <c r="M132">
+        <v>2370641</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>2299269</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>183823</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>35863</v>
+      </c>
+      <c r="G134">
+        <v>138805</v>
+      </c>
+      <c r="H134">
+        <v>17899</v>
+      </c>
+      <c r="I134">
+        <v>128863</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>116597</v>
+      </c>
+      <c r="L134">
+        <v>87306</v>
+      </c>
+      <c r="M134">
+        <v>133342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>386000</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>127647</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>201996</v>
+      </c>
+      <c r="G136">
+        <v>604412</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>56900</v>
+      </c>
+      <c r="D137">
+        <v>1311496</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>235000</v>
+      </c>
+      <c r="L137">
+        <v>174336</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>56900</v>
+      </c>
+      <c r="D138">
+        <v>1311496</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>235000</v>
+      </c>
+      <c r="L138">
+        <v>174336</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139">
+        <v>10094444</v>
+      </c>
+      <c r="C139">
+        <v>10094444</v>
+      </c>
+      <c r="D139">
+        <v>10094444</v>
+      </c>
+      <c r="E139">
+        <v>10094444</v>
+      </c>
+      <c r="F139">
+        <v>10094444</v>
+      </c>
+      <c r="G139">
+        <v>-23055363</v>
+      </c>
+      <c r="H139">
+        <v>10094444</v>
+      </c>
+      <c r="I139">
+        <v>13416667</v>
+      </c>
+      <c r="J139">
+        <v>13416667</v>
+      </c>
+      <c r="K139">
+        <v>13416667</v>
+      </c>
+      <c r="L139">
+        <v>13416667</v>
+      </c>
+      <c r="M139">
+        <v>13416667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140">
+        <v>14898039</v>
+      </c>
+      <c r="C140">
+        <v>5192489</v>
+      </c>
+      <c r="D140">
+        <v>54151043</v>
+      </c>
+      <c r="E140">
+        <v>52368204</v>
+      </c>
+      <c r="F140">
+        <v>48735921</v>
+      </c>
+      <c r="G140">
+        <v>57017716</v>
+      </c>
+      <c r="H140">
+        <v>33048685</v>
+      </c>
+      <c r="I140">
+        <v>44641905</v>
+      </c>
+      <c r="J140">
+        <v>35771291</v>
+      </c>
+      <c r="K140">
+        <v>55368468</v>
+      </c>
+      <c r="L140">
+        <v>41960755</v>
+      </c>
+      <c r="M140">
+        <v>68303974</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141">
+        <v>139819</v>
+      </c>
+      <c r="C141">
+        <v>139819</v>
+      </c>
+      <c r="D141">
+        <v>139819</v>
+      </c>
+      <c r="E141">
+        <v>139819</v>
+      </c>
+      <c r="F141">
+        <v>139819</v>
+      </c>
+      <c r="G141">
+        <v>139819</v>
+      </c>
+      <c r="H141">
+        <v>139819</v>
+      </c>
+      <c r="I141">
+        <v>139819</v>
+      </c>
+      <c r="J141">
+        <v>139819</v>
+      </c>
+      <c r="K141">
+        <v>139819</v>
+      </c>
+      <c r="L141">
+        <v>139819</v>
+      </c>
+      <c r="M141">
+        <v>139819</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142">
+        <v>30526</v>
+      </c>
+      <c r="C142">
+        <v>30526</v>
+      </c>
+      <c r="D142">
+        <v>30526</v>
+      </c>
+      <c r="E142">
+        <v>30526</v>
+      </c>
+      <c r="F142">
+        <v>30526</v>
+      </c>
+      <c r="G142">
+        <v>38062</v>
+      </c>
+      <c r="H142">
+        <v>53682</v>
+      </c>
+      <c r="I142">
+        <v>53682</v>
+      </c>
+      <c r="J142">
+        <v>53682</v>
+      </c>
+      <c r="K142">
+        <v>53682</v>
+      </c>
+      <c r="L142">
+        <v>53682</v>
+      </c>
+      <c r="M142">
+        <v>53682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143">
+        <v>4302</v>
+      </c>
+      <c r="C143">
+        <v>4739</v>
+      </c>
+      <c r="D143">
+        <v>5142</v>
+      </c>
+      <c r="E143">
+        <v>5196</v>
+      </c>
+      <c r="F143">
+        <v>5729</v>
+      </c>
+      <c r="G143">
+        <v>5937</v>
+      </c>
+      <c r="H143">
+        <v>5835</v>
+      </c>
+      <c r="I143">
+        <v>1231</v>
+      </c>
+      <c r="J143">
+        <v>1518978</v>
+      </c>
+      <c r="K143">
+        <v>2355483</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>2631</v>
+      </c>
+      <c r="J144">
+        <v>384490</v>
+      </c>
+      <c r="K144">
+        <v>5388</v>
+      </c>
+      <c r="L144">
+        <v>738388</v>
+      </c>
+      <c r="M144">
+        <v>85282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145">
+        <v>69368</v>
+      </c>
+      <c r="C145">
+        <v>45980</v>
+      </c>
+      <c r="D145">
+        <v>81341</v>
+      </c>
+      <c r="E145">
+        <v>30002</v>
+      </c>
+      <c r="F145">
+        <v>94788</v>
+      </c>
+      <c r="G145">
+        <v>153088</v>
+      </c>
+      <c r="H145">
+        <v>130599</v>
+      </c>
+      <c r="I145">
+        <v>88781</v>
+      </c>
+      <c r="J145">
+        <v>341465</v>
+      </c>
+      <c r="K145">
+        <v>14254</v>
+      </c>
+      <c r="L145">
+        <v>34470</v>
+      </c>
+      <c r="M145">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>690808</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1026667</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147">
+        <v>-4333309</v>
+      </c>
+      <c r="C147">
+        <v>-2356858</v>
+      </c>
+      <c r="D147">
+        <v>593818696</v>
+      </c>
+      <c r="E147">
+        <v>599753453</v>
+      </c>
+      <c r="F147">
+        <v>512400663</v>
+      </c>
+      <c r="G147">
+        <v>413999270</v>
+      </c>
+      <c r="H147">
+        <v>619579258</v>
+      </c>
+      <c r="I147">
+        <v>346430065</v>
+      </c>
+      <c r="J147">
+        <v>236912663</v>
+      </c>
+      <c r="K147">
+        <v>214617425</v>
+      </c>
+      <c r="L147">
+        <v>187017896</v>
+      </c>
+      <c r="M147">
+        <v>117846611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>-746607106</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149">
+        <v>1456290107</v>
+      </c>
+      <c r="C149">
+        <v>-704827688</v>
+      </c>
+      <c r="D149">
+        <v>500309150</v>
+      </c>
+      <c r="E149">
+        <v>-254342721</v>
+      </c>
+      <c r="F149">
+        <v>-234580968</v>
+      </c>
+      <c r="G149">
+        <v>-194427735</v>
+      </c>
+      <c r="H149">
+        <v>773747969</v>
+      </c>
+      <c r="I149">
+        <v>-311046154</v>
+      </c>
+      <c r="J149">
+        <v>206219209</v>
+      </c>
+      <c r="K149">
+        <v>-234839354</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150">
         <v>-1437294170</v>
       </c>
-      <c r="C128">
+      <c r="C150">
         <v>712165449</v>
       </c>
-      <c r="D128">
+      <c r="D150">
         <v>-1040223347</v>
       </c>
-      <c r="E128">
+      <c r="E150">
         <v>-293237679</v>
       </c>
-      <c r="F128">
+      <c r="F150">
         <v>-229343178</v>
       </c>
-      <c r="G128">
+      <c r="G150">
         <v>-163569659</v>
       </c>
-      <c r="H128">
+      <c r="H150">
         <v>-613989702</v>
       </c>
-      <c r="I128">
+      <c r="I150">
         <v>7952907</v>
       </c>
-      <c r="J128">
+      <c r="J150">
         <v>-405992079</v>
       </c>
-      <c r="K128">
+      <c r="K150">
         <v>77743513</v>
       </c>
-      <c r="L128">
+      <c r="L150">
         <v>-144546724</v>
       </c>
-      <c r="M128">
+      <c r="M150">
         <v>-49659461</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -903,40 +903,40 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>33086.83</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>33397.95</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>33836.51</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>34258.23</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>34600.35</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>34811.8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>35099.67</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>35287.45</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>35509.63</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>35575.43</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>35812.37</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>36032.84</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -944,40 +944,40 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-19778703</v>
+        <v>-598</v>
       </c>
       <c r="C3">
-        <v>-23706509</v>
+        <v>-710</v>
       </c>
       <c r="D3">
-        <v>-23969987</v>
+        <v>-708</v>
       </c>
       <c r="E3">
-        <v>-14443124</v>
+        <v>-422</v>
       </c>
       <c r="F3">
-        <v>-21126040</v>
+        <v>-611</v>
       </c>
       <c r="G3">
-        <v>-15444643</v>
+        <v>-444</v>
       </c>
       <c r="H3">
-        <v>-17923877</v>
+        <v>-511</v>
       </c>
       <c r="I3">
-        <v>-21546547</v>
+        <v>-611</v>
       </c>
       <c r="J3">
-        <v>-18259411</v>
+        <v>-514</v>
       </c>
       <c r="K3">
-        <v>-18616873</v>
+        <v>-523</v>
       </c>
       <c r="L3">
-        <v>-23615784</v>
+        <v>-659</v>
       </c>
       <c r="M3">
-        <v>-13020231</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -985,40 +985,40 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-2449313</v>
+        <v>-74</v>
       </c>
       <c r="C4">
-        <v>-3303871</v>
+        <v>-99</v>
       </c>
       <c r="D4">
-        <v>-3074060</v>
+        <v>-91</v>
       </c>
       <c r="E4">
-        <v>-2495352</v>
+        <v>-73</v>
       </c>
       <c r="F4">
-        <v>-8423135</v>
+        <v>-243</v>
       </c>
       <c r="G4">
-        <v>-2578859</v>
+        <v>-74</v>
       </c>
       <c r="H4">
-        <v>-2221514</v>
+        <v>-63</v>
       </c>
       <c r="I4">
-        <v>-1846619</v>
+        <v>-52</v>
       </c>
       <c r="J4">
-        <v>-2234514</v>
+        <v>-63</v>
       </c>
       <c r="K4">
-        <v>-6821369</v>
+        <v>-192</v>
       </c>
       <c r="L4">
-        <v>-1755750</v>
+        <v>-49</v>
       </c>
       <c r="M4">
-        <v>-1540536</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1026,40 +1026,40 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1403503</v>
+        <v>-42</v>
       </c>
       <c r="C5">
-        <v>-984824</v>
+        <v>-29</v>
       </c>
       <c r="D5">
-        <v>-3950541</v>
+        <v>-117</v>
       </c>
       <c r="E5">
-        <v>275731</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>-1804967</v>
+        <v>-52</v>
       </c>
       <c r="G5">
-        <v>-2603924</v>
+        <v>-75</v>
       </c>
       <c r="H5">
-        <v>-3734820</v>
+        <v>-106</v>
       </c>
       <c r="I5">
-        <v>-2966444</v>
+        <v>-84</v>
       </c>
       <c r="J5">
-        <v>-4727362</v>
+        <v>-133</v>
       </c>
       <c r="K5">
-        <v>-5700827</v>
+        <v>-160</v>
       </c>
       <c r="L5">
-        <v>-4152179</v>
+        <v>-116</v>
       </c>
       <c r="M5">
-        <v>-4457619</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1067,40 +1067,40 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>-16018692</v>
+        <v>-484</v>
       </c>
       <c r="C6">
-        <v>-36362968</v>
+        <v>-1089</v>
       </c>
       <c r="D6">
-        <v>3224916</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>-11644409</v>
+        <v>-340</v>
       </c>
       <c r="F6">
-        <v>-16681938</v>
+        <v>-482</v>
       </c>
       <c r="G6">
-        <v>-31567102</v>
+        <v>-907</v>
       </c>
       <c r="H6">
-        <v>-51303115</v>
+        <v>-1462</v>
       </c>
       <c r="I6">
-        <v>-18025419</v>
+        <v>-511</v>
       </c>
       <c r="J6">
-        <v>-14436872</v>
+        <v>-407</v>
       </c>
       <c r="K6">
-        <v>-17161721</v>
+        <v>-482</v>
       </c>
       <c r="L6">
-        <v>-19457318</v>
+        <v>-543</v>
       </c>
       <c r="M6">
-        <v>-5939970</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1108,40 +1108,40 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>-7881729</v>
+        <v>-238</v>
       </c>
       <c r="C7">
-        <v>-4175440</v>
+        <v>-125</v>
       </c>
       <c r="D7">
-        <v>-5037823</v>
+        <v>-149</v>
       </c>
       <c r="E7">
-        <v>-7763518</v>
+        <v>-227</v>
       </c>
       <c r="F7">
-        <v>-3270089</v>
+        <v>-95</v>
       </c>
       <c r="G7">
-        <v>-18102485</v>
+        <v>-520</v>
       </c>
       <c r="H7">
-        <v>-12691881</v>
+        <v>-362</v>
       </c>
       <c r="I7">
-        <v>-7858168</v>
+        <v>-223</v>
       </c>
       <c r="J7">
-        <v>-1286593</v>
+        <v>-36</v>
       </c>
       <c r="K7">
-        <v>-7015097</v>
+        <v>-197</v>
       </c>
       <c r="L7">
-        <v>-7747421</v>
+        <v>-216</v>
       </c>
       <c r="M7">
-        <v>-7809322</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1149,40 +1149,40 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>-3215670</v>
+        <v>-97</v>
       </c>
       <c r="C8">
-        <v>-2812650</v>
+        <v>-84</v>
       </c>
       <c r="D8">
-        <v>-3433215</v>
+        <v>-101</v>
       </c>
       <c r="E8">
-        <v>-4719009</v>
+        <v>-138</v>
       </c>
       <c r="F8">
-        <v>-5560501</v>
+        <v>-161</v>
       </c>
       <c r="G8">
-        <v>-4745655</v>
+        <v>-136</v>
       </c>
       <c r="H8">
-        <v>-9476099</v>
+        <v>-270</v>
       </c>
       <c r="I8">
-        <v>-5028764</v>
+        <v>-143</v>
       </c>
       <c r="J8">
-        <v>-2409465</v>
+        <v>-68</v>
       </c>
       <c r="K8">
-        <v>-1538161</v>
+        <v>-43</v>
       </c>
       <c r="L8">
-        <v>529582</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>-847070</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1190,40 +1190,40 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-2326999</v>
+        <v>-70</v>
       </c>
       <c r="C9">
-        <v>-3855856</v>
+        <v>-115</v>
       </c>
       <c r="D9">
-        <v>-4387399</v>
+        <v>-130</v>
       </c>
       <c r="E9">
-        <v>-4850426</v>
+        <v>-142</v>
       </c>
       <c r="F9">
-        <v>-4467989</v>
+        <v>-129</v>
       </c>
       <c r="G9">
-        <v>-5393937</v>
+        <v>-155</v>
       </c>
       <c r="H9">
-        <v>-6787511</v>
+        <v>-193</v>
       </c>
       <c r="I9">
-        <v>-5236837</v>
+        <v>-148</v>
       </c>
       <c r="J9">
-        <v>-4824557</v>
+        <v>-136</v>
       </c>
       <c r="K9">
-        <v>-5317999</v>
+        <v>-149</v>
       </c>
       <c r="L9">
-        <v>-5509924</v>
+        <v>-154</v>
       </c>
       <c r="M9">
-        <v>-5959167</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1231,40 +1231,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>-50747610</v>
+        <v>-1533</v>
       </c>
       <c r="C10">
-        <v>-71346262</v>
+        <v>-2136</v>
       </c>
       <c r="D10">
-        <v>-36240710</v>
+        <v>-1071</v>
       </c>
       <c r="E10">
-        <v>-40789681</v>
+        <v>-1192</v>
       </c>
       <c r="F10">
-        <v>-56866670</v>
+        <v>-1644</v>
       </c>
       <c r="G10">
-        <v>-75042668</v>
+        <v>-2156</v>
       </c>
       <c r="H10">
-        <v>-97351306</v>
+        <v>-2774</v>
       </c>
       <c r="I10">
-        <v>-57271961</v>
+        <v>-1624</v>
       </c>
       <c r="J10">
-        <v>-43354217</v>
+        <v>-1221</v>
       </c>
       <c r="K10">
-        <v>-56854048</v>
+        <v>-1597</v>
       </c>
       <c r="L10">
-        <v>-56198870</v>
+        <v>-1568</v>
       </c>
       <c r="M10">
-        <v>-33614748</v>
+        <v>-934</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1272,40 +1272,40 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-53074609</v>
+        <v>-1603</v>
       </c>
       <c r="C11">
-        <v>-75202118</v>
+        <v>-2251</v>
       </c>
       <c r="D11">
-        <v>-40628109</v>
+        <v>-1201</v>
       </c>
       <c r="E11">
-        <v>-45640107</v>
+        <v>-1334</v>
       </c>
       <c r="F11">
-        <v>-61334659</v>
+        <v>-1773</v>
       </c>
       <c r="G11">
-        <v>-80436605</v>
+        <v>-2311</v>
       </c>
       <c r="H11">
-        <v>-104138817</v>
+        <v>-2967</v>
       </c>
       <c r="I11">
-        <v>-62508798</v>
+        <v>-1772</v>
       </c>
       <c r="J11">
-        <v>-48178774</v>
+        <v>-1357</v>
       </c>
       <c r="K11">
-        <v>-62172047</v>
+        <v>-1746</v>
       </c>
       <c r="L11">
-        <v>-61708794</v>
+        <v>-1722</v>
       </c>
       <c r="M11">
-        <v>-39573915</v>
+        <v>-1099</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1313,28 +1313,28 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>-6907071</v>
+        <v>-209</v>
       </c>
       <c r="C12">
-        <v>-6890680</v>
+        <v>-206</v>
       </c>
       <c r="D12">
         <v>-0</v>
       </c>
       <c r="E12">
-        <v>-7259745</v>
+        <v>-212</v>
       </c>
       <c r="F12">
         <v>-0</v>
       </c>
       <c r="G12">
-        <v>-7259745</v>
+        <v>-209</v>
       </c>
       <c r="H12">
-        <v>-3103243</v>
+        <v>-88</v>
       </c>
       <c r="I12">
-        <v>-1569786</v>
+        <v>-44</v>
       </c>
       <c r="J12">
         <v>-0</v>
@@ -1343,10 +1343,10 @@
         <v>-0</v>
       </c>
       <c r="L12">
-        <v>-10678625</v>
+        <v>-298</v>
       </c>
       <c r="M12">
-        <v>-107274</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1354,40 +1354,40 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>-1822097</v>
+        <v>-55</v>
       </c>
       <c r="C13">
-        <v>-1822097</v>
+        <v>-55</v>
       </c>
       <c r="D13">
-        <v>-1822097</v>
+        <v>-54</v>
       </c>
       <c r="E13">
-        <v>-1822097</v>
+        <v>-53</v>
       </c>
       <c r="F13">
-        <v>-1822097</v>
+        <v>-53</v>
       </c>
       <c r="G13">
-        <v>-1822097</v>
+        <v>-52</v>
       </c>
       <c r="H13">
-        <v>-1822097</v>
+        <v>-52</v>
       </c>
       <c r="I13">
-        <v>-1803662</v>
+        <v>-51</v>
       </c>
       <c r="J13">
-        <v>-1845504</v>
+        <v>-52</v>
       </c>
       <c r="K13">
-        <v>-1824524</v>
+        <v>-51</v>
       </c>
       <c r="L13">
-        <v>-1824524</v>
+        <v>-51</v>
       </c>
       <c r="M13">
-        <v>-1824524</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1395,40 +1395,40 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>-1695671</v>
+        <v>-51</v>
       </c>
       <c r="C14">
-        <v>-1818098</v>
+        <v>-54</v>
       </c>
       <c r="D14">
-        <v>-2005362</v>
+        <v>-59</v>
       </c>
       <c r="E14">
-        <v>-2247605</v>
+        <v>-66</v>
       </c>
       <c r="F14">
-        <v>-2405379</v>
+        <v>-70</v>
       </c>
       <c r="G14">
-        <v>-2666738</v>
+        <v>-77</v>
       </c>
       <c r="H14">
-        <v>-3289733</v>
+        <v>-94</v>
       </c>
       <c r="I14">
-        <v>-2599965</v>
+        <v>-74</v>
       </c>
       <c r="J14">
-        <v>-2563820</v>
+        <v>-72</v>
       </c>
       <c r="K14">
-        <v>-2315284</v>
+        <v>-65</v>
       </c>
       <c r="L14">
-        <v>-2650139</v>
+        <v>-74</v>
       </c>
       <c r="M14">
-        <v>-3195754</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1436,40 +1436,40 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>-10424839</v>
+        <v>-315</v>
       </c>
       <c r="C15">
-        <v>-10530875</v>
+        <v>-315</v>
       </c>
       <c r="D15">
-        <v>-3827459</v>
+        <v>-113</v>
       </c>
       <c r="E15">
-        <v>-11329447</v>
+        <v>-331</v>
       </c>
       <c r="F15">
-        <v>-4227476</v>
+        <v>-123</v>
       </c>
       <c r="G15">
-        <v>-11748580</v>
+        <v>-338</v>
       </c>
       <c r="H15">
-        <v>-8215073</v>
+        <v>-234</v>
       </c>
       <c r="I15">
-        <v>-5973413</v>
+        <v>-169</v>
       </c>
       <c r="J15">
-        <v>-4409324</v>
+        <v>-124</v>
       </c>
       <c r="K15">
-        <v>-4139808</v>
+        <v>-116</v>
       </c>
       <c r="L15">
-        <v>-15153288</v>
+        <v>-423</v>
       </c>
       <c r="M15">
-        <v>-5127552</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1477,40 +1477,40 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>114966684</v>
+        <v>3475</v>
       </c>
       <c r="C16">
-        <v>114966684</v>
+        <v>3442</v>
       </c>
       <c r="D16">
-        <v>114966684</v>
+        <v>3398</v>
       </c>
       <c r="E16">
-        <v>114966684</v>
+        <v>3356</v>
       </c>
       <c r="F16">
-        <v>114966684</v>
+        <v>3323</v>
       </c>
       <c r="G16">
-        <v>114966684</v>
+        <v>3303</v>
       </c>
       <c r="H16">
-        <v>114966684</v>
+        <v>3275</v>
       </c>
       <c r="I16">
-        <v>171258789</v>
+        <v>4853</v>
       </c>
       <c r="J16">
-        <v>171258789</v>
+        <v>4823</v>
       </c>
       <c r="K16">
-        <v>171258789</v>
+        <v>4814</v>
       </c>
       <c r="L16">
-        <v>171258789</v>
+        <v>4782</v>
       </c>
       <c r="M16">
-        <v>171258789</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1518,40 +1518,40 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>3976114</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>10021173</v>
+        <v>300</v>
       </c>
       <c r="D17">
-        <v>7293025</v>
+        <v>216</v>
       </c>
       <c r="E17">
-        <v>7321180</v>
+        <v>214</v>
       </c>
       <c r="F17">
-        <v>15702297</v>
+        <v>454</v>
       </c>
       <c r="G17">
-        <v>8245520</v>
+        <v>237</v>
       </c>
       <c r="H17">
-        <v>31557629</v>
+        <v>899</v>
       </c>
       <c r="I17">
-        <v>-31319150</v>
+        <v>-888</v>
       </c>
       <c r="J17">
-        <v>-28454491</v>
+        <v>-801</v>
       </c>
       <c r="K17">
-        <v>-26222842</v>
+        <v>-737</v>
       </c>
       <c r="L17">
-        <v>-25979626</v>
+        <v>-725</v>
       </c>
       <c r="M17">
-        <v>-44080324</v>
+        <v>-1223</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1559,40 +1559,40 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>-48563739</v>
+        <v>-1468</v>
       </c>
       <c r="C18">
-        <v>-44911835</v>
+        <v>-1345</v>
       </c>
       <c r="D18">
-        <v>-39931994</v>
+        <v>-1180</v>
       </c>
       <c r="E18">
-        <v>-33259545</v>
+        <v>-971</v>
       </c>
       <c r="F18">
-        <v>-26550772</v>
+        <v>-767</v>
       </c>
       <c r="G18">
-        <v>-18944955</v>
+        <v>-544</v>
       </c>
       <c r="H18">
-        <v>-22438314</v>
+        <v>-639</v>
       </c>
       <c r="I18">
-        <v>-35610381</v>
+        <v>-1009</v>
       </c>
       <c r="J18">
-        <v>-45564316</v>
+        <v>-1283</v>
       </c>
       <c r="K18">
-        <v>-35978501</v>
+        <v>-1011</v>
       </c>
       <c r="L18">
-        <v>-37349605</v>
+        <v>-1043</v>
       </c>
       <c r="M18">
-        <v>-16290029</v>
+        <v>-452</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1600,40 +1600,40 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>-3613578</v>
+        <v>-109</v>
       </c>
       <c r="C19">
-        <v>-9671304</v>
+        <v>-290</v>
       </c>
       <c r="D19">
-        <v>-4301349</v>
+        <v>-127</v>
       </c>
       <c r="E19">
-        <v>-2062819</v>
+        <v>-60</v>
       </c>
       <c r="F19">
-        <v>-10402912</v>
+        <v>-301</v>
       </c>
       <c r="G19">
-        <v>-1159977</v>
+        <v>-33</v>
       </c>
       <c r="H19">
-        <v>-1371819</v>
+        <v>-39</v>
       </c>
       <c r="I19">
-        <v>-7133347</v>
+        <v>-202</v>
       </c>
       <c r="J19">
-        <v>-6984272</v>
+        <v>-197</v>
       </c>
       <c r="K19">
-        <v>-9793572</v>
+        <v>-275</v>
       </c>
       <c r="L19">
-        <v>-8502665</v>
+        <v>-237</v>
       </c>
       <c r="M19">
-        <v>-4077450</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1641,40 +1641,40 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>-1635754</v>
+        <v>-49</v>
       </c>
       <c r="C20">
-        <v>-1635754</v>
+        <v>-49</v>
       </c>
       <c r="D20">
-        <v>-1635754</v>
+        <v>-48</v>
       </c>
       <c r="E20">
-        <v>-1635754</v>
+        <v>-48</v>
       </c>
       <c r="F20">
-        <v>-1635754</v>
+        <v>-47</v>
       </c>
       <c r="G20">
-        <v>-1635754</v>
+        <v>-47</v>
       </c>
       <c r="H20">
-        <v>-1635754</v>
+        <v>-47</v>
       </c>
       <c r="I20">
-        <v>-2305032</v>
+        <v>-65</v>
       </c>
       <c r="J20">
-        <v>-1638344</v>
+        <v>-46</v>
       </c>
       <c r="K20">
-        <v>-1638344</v>
+        <v>-46</v>
       </c>
       <c r="L20">
-        <v>-720690</v>
+        <v>-20</v>
       </c>
       <c r="M20">
-        <v>-1387377</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1700,22 +1700,22 @@
         <v>-0</v>
       </c>
       <c r="H21">
-        <v>-4973984</v>
+        <v>-142</v>
       </c>
       <c r="I21">
-        <v>-4246174</v>
+        <v>-120</v>
       </c>
       <c r="J21">
-        <v>-10559357</v>
+        <v>-297</v>
       </c>
       <c r="K21">
-        <v>9220158</v>
+        <v>259</v>
       </c>
       <c r="L21">
         <v>-0</v>
       </c>
       <c r="M21">
-        <v>-13786568</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1723,40 +1723,40 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>65129727</v>
+        <v>1969</v>
       </c>
       <c r="C22">
-        <v>68768964</v>
+        <v>2058</v>
       </c>
       <c r="D22">
-        <v>76390612</v>
+        <v>2259</v>
       </c>
       <c r="E22">
-        <v>85329746</v>
+        <v>2491</v>
       </c>
       <c r="F22">
-        <v>92079543</v>
+        <v>2662</v>
       </c>
       <c r="G22">
-        <v>101471518</v>
+        <v>2916</v>
       </c>
       <c r="H22">
-        <v>116104442</v>
+        <v>3307</v>
       </c>
       <c r="I22">
-        <v>90644705</v>
+        <v>2569</v>
       </c>
       <c r="J22">
-        <v>78058009</v>
+        <v>2199</v>
       </c>
       <c r="K22">
-        <v>106845688</v>
+        <v>3004</v>
       </c>
       <c r="L22">
-        <v>98706203</v>
+        <v>2757</v>
       </c>
       <c r="M22">
-        <v>91637041</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1764,40 +1764,40 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>109853</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>463186</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>45114</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>283870</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>168265</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>171316</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>239939</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>516729</v>
+        <v>15</v>
       </c>
       <c r="J23">
-        <v>199974</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>684778</v>
+        <v>19</v>
       </c>
       <c r="L23">
-        <v>400802</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>237873</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1805,40 +1805,40 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>109853</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>463186</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>45114</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>283870</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>168265</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>171316</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>239939</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>516729</v>
+        <v>15</v>
       </c>
       <c r="J24">
-        <v>199974</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>684778</v>
+        <v>19</v>
       </c>
       <c r="L24">
-        <v>400802</v>
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>237873</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1846,40 +1846,40 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>65239580</v>
+        <v>1972</v>
       </c>
       <c r="C25">
-        <v>69232150</v>
+        <v>2072</v>
       </c>
       <c r="D25">
-        <v>76435726</v>
+        <v>2260</v>
       </c>
       <c r="E25">
-        <v>85613616</v>
+        <v>2499</v>
       </c>
       <c r="F25">
-        <v>92247808</v>
+        <v>2667</v>
       </c>
       <c r="G25">
-        <v>101642834</v>
+        <v>2921</v>
       </c>
       <c r="H25">
-        <v>116344381</v>
+        <v>3314</v>
       </c>
       <c r="I25">
-        <v>91161434</v>
+        <v>2584</v>
       </c>
       <c r="J25">
-        <v>78257983</v>
+        <v>2205</v>
       </c>
       <c r="K25">
-        <v>107530466</v>
+        <v>3023</v>
       </c>
       <c r="L25">
-        <v>99107005</v>
+        <v>2768</v>
       </c>
       <c r="M25">
-        <v>91874914</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1887,40 +1887,40 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2410781</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>2813731</v>
+        <v>84</v>
       </c>
       <c r="D26">
-        <v>3005001</v>
+        <v>89</v>
       </c>
       <c r="E26">
-        <v>3363566</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>3381590</v>
+        <v>98</v>
       </c>
       <c r="G26">
-        <v>3479147</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>4267043</v>
+        <v>122</v>
       </c>
       <c r="I26">
-        <v>3359813</v>
+        <v>95</v>
       </c>
       <c r="J26">
-        <v>2309868</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>2553922</v>
+        <v>72</v>
       </c>
       <c r="L26">
-        <v>1822762</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>1937742</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1931,37 +1931,37 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>39847</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>45461</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>46018</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>53031</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>97227</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>97821</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>81835</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>51167</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>186638</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>148706</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>97875</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1969,40 +1969,40 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>176497</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>638191</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>728280</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>880994</v>
+        <v>26</v>
       </c>
       <c r="F28">
-        <v>532742</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>1450332</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>932103</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>903165</v>
+        <v>26</v>
       </c>
       <c r="J28">
-        <v>815064</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <v>780640</v>
+        <v>22</v>
       </c>
       <c r="L28">
-        <v>4927090</v>
+        <v>138</v>
       </c>
       <c r="M28">
-        <v>6346508</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2092,40 +2092,40 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>2587278</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>3491769</v>
+        <v>104</v>
       </c>
       <c r="D31">
-        <v>3778742</v>
+        <v>112</v>
       </c>
       <c r="E31">
-        <v>4290578</v>
+        <v>125</v>
       </c>
       <c r="F31">
-        <v>3967363</v>
+        <v>115</v>
       </c>
       <c r="G31">
-        <v>5026706</v>
+        <v>145</v>
       </c>
       <c r="H31">
-        <v>5296967</v>
+        <v>152</v>
       </c>
       <c r="I31">
-        <v>4344813</v>
+        <v>123</v>
       </c>
       <c r="J31">
-        <v>3176099</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>3521200</v>
+        <v>99</v>
       </c>
       <c r="L31">
-        <v>6898558</v>
+        <v>193</v>
       </c>
       <c r="M31">
-        <v>8382125</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2133,40 +2133,40 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>15063769</v>
+        <v>455</v>
       </c>
       <c r="C32">
-        <v>19286684</v>
+        <v>577</v>
       </c>
       <c r="D32">
-        <v>23715132</v>
+        <v>701</v>
       </c>
       <c r="E32">
-        <v>24049505</v>
+        <v>702</v>
       </c>
       <c r="F32">
-        <v>23964767</v>
+        <v>693</v>
       </c>
       <c r="G32">
-        <v>22264572</v>
+        <v>640</v>
       </c>
       <c r="H32">
-        <v>31292841</v>
+        <v>892</v>
       </c>
       <c r="I32">
-        <v>23298834</v>
+        <v>660</v>
       </c>
       <c r="J32">
-        <v>20808167</v>
+        <v>586</v>
       </c>
       <c r="K32">
-        <v>22841974</v>
+        <v>642</v>
       </c>
       <c r="L32">
-        <v>22384606</v>
+        <v>625</v>
       </c>
       <c r="M32">
-        <v>23768434</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2297,40 +2297,40 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>15063769</v>
+        <v>455</v>
       </c>
       <c r="C36">
-        <v>19286684</v>
+        <v>577</v>
       </c>
       <c r="D36">
-        <v>23715132</v>
+        <v>701</v>
       </c>
       <c r="E36">
-        <v>24049505</v>
+        <v>702</v>
       </c>
       <c r="F36">
-        <v>23964767</v>
+        <v>693</v>
       </c>
       <c r="G36">
-        <v>22264572</v>
+        <v>640</v>
       </c>
       <c r="H36">
-        <v>31292841</v>
+        <v>892</v>
       </c>
       <c r="I36">
-        <v>23298834</v>
+        <v>660</v>
       </c>
       <c r="J36">
-        <v>20808167</v>
+        <v>586</v>
       </c>
       <c r="K36">
-        <v>22841974</v>
+        <v>642</v>
       </c>
       <c r="L36">
-        <v>22384606</v>
+        <v>625</v>
       </c>
       <c r="M36">
-        <v>23768434</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2338,40 +2338,40 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>82890627</v>
+        <v>2505</v>
       </c>
       <c r="C37">
-        <v>92010603</v>
+        <v>2753</v>
       </c>
       <c r="D37">
-        <v>103929600</v>
+        <v>3073</v>
       </c>
       <c r="E37">
-        <v>113953699</v>
+        <v>3326</v>
       </c>
       <c r="F37">
-        <v>120179938</v>
+        <v>3475</v>
       </c>
       <c r="G37">
-        <v>128934112</v>
+        <v>3706</v>
       </c>
       <c r="H37">
-        <v>152934189</v>
+        <v>4358</v>
       </c>
       <c r="I37">
-        <v>118805081</v>
+        <v>3367</v>
       </c>
       <c r="J37">
-        <v>102242249</v>
+        <v>2880</v>
       </c>
       <c r="K37">
-        <v>133893640</v>
+        <v>3764</v>
       </c>
       <c r="L37">
-        <v>128390169</v>
+        <v>3586</v>
       </c>
       <c r="M37">
-        <v>124025473</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="38" spans="1:13">
